--- a/STAMP/2016-08-23_STAMPv2_Annotation.xlsx
+++ b/STAMP/2016-08-23_STAMPv2_Annotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicachen/Documents/ClinicalDataScience_Fellowship/STAMP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63133198-0F2A-864B-A0E2-0B9E7F424CBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5CD010-A120-154A-8FDB-CA0331C70A1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22700" windowHeight="17540" tabRatio="265" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29800" yWindow="460" windowWidth="22700" windowHeight="17540" tabRatio="265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Domains" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Domains!$A$3:$C$330</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Genes!$A$3:$I$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Genes!$A$3:$I$285</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Tiles!$A$2:$K$1161</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Domains!$A$3:$C$330</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Genes!$A$3:$I$135</definedName>
@@ -34,6 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9948" uniqueCount="2671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9964" uniqueCount="2672">
   <si>
     <t>STAMPv2 targeted genes</t>
   </si>
@@ -8054,6 +8055,9 @@
   </si>
   <si>
     <t>SMC proteins Flexible Hinge Domain</t>
+  </si>
+  <si>
+    <t>Promoter</t>
   </si>
 </sst>
 </file>
@@ -8142,7 +8146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8221,6 +8225,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8612,10 +8625,10 @@
   <dimension ref="A1:L1228"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C1168" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="F1184" sqref="F1184:G1187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8636,17 +8649,17 @@
       <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="A2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39" t="s">
         <v>2534</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
@@ -34307,54 +34320,122 @@
       <c r="L1183" s="15"/>
     </row>
     <row r="1184" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B1184" s="35"/>
-    </row>
-    <row r="1185" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B1185" s="26"/>
-    </row>
-    <row r="1186" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B1186" s="26"/>
-    </row>
-    <row r="1187" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B1187" s="26"/>
-    </row>
-    <row r="1188" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1184" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1184" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1184" s="24" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E1184" s="24" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F1184" s="37">
+        <v>0</v>
+      </c>
+      <c r="G1184" s="38">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1185" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1185" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1185" s="24" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E1185" s="24" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F1185" s="37">
+        <v>0</v>
+      </c>
+      <c r="G1185" s="38">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="1186" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1186" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1186" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1186" s="24" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E1186" s="24" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F1186" s="37">
+        <v>0</v>
+      </c>
+      <c r="G1186" s="38">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="1187" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1187" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1187" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1187" s="24" t="s">
+        <v>2671</v>
+      </c>
+      <c r="E1187" s="24" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F1187" s="37">
+        <v>0</v>
+      </c>
+      <c r="G1187" s="38">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="1188" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1188" s="26"/>
     </row>
-    <row r="1189" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1189" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1189" s="26"/>
     </row>
-    <row r="1190" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1190" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1190" s="26"/>
     </row>
-    <row r="1191" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1191" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1191" s="26"/>
     </row>
-    <row r="1192" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1192" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1192" s="26"/>
     </row>
-    <row r="1193" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1193" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1193" s="26"/>
     </row>
-    <row r="1194" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1194" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1194" s="26"/>
     </row>
-    <row r="1195" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1195" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1195" s="26"/>
     </row>
-    <row r="1196" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1196" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1196" s="26"/>
     </row>
-    <row r="1197" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1197" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1197" s="26"/>
     </row>
-    <row r="1198" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1198" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1198" s="26"/>
     </row>
-    <row r="1199" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1199" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1199" s="26"/>
     </row>
-    <row r="1200" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1200" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1200" s="26"/>
     </row>
     <row r="1201" spans="2:2" x14ac:dyDescent="0.15">
@@ -34442,7 +34523,7 @@
       <c r="B1228" s="26"/>
     </row>
   </sheetData>
-  <sortState ref="A445:L1183">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A445:L1183">
     <sortCondition ref="B445:B1183"/>
     <sortCondition ref="F445:F1183"/>
   </sortState>
@@ -34463,8 +34544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L285"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -34502,14 +34583,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -41426,7 +41507,7 @@
       <c r="L285" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I135" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:I285" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="D2:I2"/>
   </mergeCells>
@@ -41443,8 +41524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1161"/>
   <sheetViews>
-    <sheetView topLeftCell="A471" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A1148" sqref="A1148"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B642" sqref="B642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -81430,7 +81511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
